--- a/Meetings/Meeting Setup/Main.rvl.xlsx
+++ b/Meetings/Meeting Setup/Main.rvl.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="49">
   <si>
     <t>Flow</t>
   </si>
@@ -91,6 +91,75 @@
   </si>
   <si>
     <t>C:\SpiraRepository\UX 365 Regression Testing\Global\Open test org</t>
+  </si>
+  <si>
+    <t>Tester</t>
+  </si>
+  <si>
+    <t>Message</t>
+  </si>
+  <si>
+    <t>message</t>
+  </si>
+  <si>
+    <t>****Test runs all tests required to test a product sales transaction from start to finish.</t>
+  </si>
+  <si>
+    <t>*****All Product Setup must already be created prior to running this test.</t>
+  </si>
+  <si>
+    <t>****Test runs all tests required to create a meeting registration with a session from start to finish.</t>
+  </si>
+  <si>
+    <t>*****All Meeting Setup must already be created prior to running this test.</t>
+  </si>
+  <si>
+    <t>Open test org</t>
+  </si>
+  <si>
+    <t>********Run Test: Open test Org*******</t>
+  </si>
+  <si>
+    <t>DoPlayScript</t>
+  </si>
+  <si>
+    <t>scriptPath</t>
+  </si>
+  <si>
+    <t>C:\UX365RegressionTest\Global\Open test Org\Main.rvl.xlsx</t>
+  </si>
+  <si>
+    <t>C:\UX365RegressionTest\Meetings\Create New Location Setup</t>
+  </si>
+  <si>
+    <t>********Run Test: Create New Location Setup*******</t>
+  </si>
+  <si>
+    <t>C:\UX365RegressionTest\Meetings\Create Event Setup</t>
+  </si>
+  <si>
+    <t>********Run Test: Create Event Setup*******</t>
+  </si>
+  <si>
+    <t>C:\UX365RegressionTest\Meetings\Create Event Meeting Setup</t>
+  </si>
+  <si>
+    <t>********Run Test: Create Event Meeting Setup*******</t>
+  </si>
+  <si>
+    <t>C:\UX365RegressionTest\Meetings\Create Event Registration Setup</t>
+  </si>
+  <si>
+    <t>********Run Test: *******</t>
+  </si>
+  <si>
+    <t>********Run Test: Create Event Registration Setup*******</t>
+  </si>
+  <si>
+    <t>C:\UX365RegressionTest\Meetings\Create Event Session Setup</t>
+  </si>
+  <si>
+    <t>********Run Test: Create Event Session Setup*******</t>
   </si>
 </sst>
 </file>
@@ -111,7 +180,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="179">
+  <borders count="189">
     <border>
       <left/>
       <right/>
@@ -297,11 +366,21 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="179">
+  <cellXfs count="189">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0"/>
@@ -481,6 +560,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="176" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="177" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="178" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="179" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="180" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="181" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="182" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="183" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="184" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="185" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="186" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="187" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="188" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -490,7 +579,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:H42"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.5546875" customWidth="true"/>
@@ -530,25 +619,36 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="9"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="16"/>
+      <c r="A2" s="183" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="176" t="s">
-        <v>8</v>
-      </c>
+      <c r="A3" s="182"/>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="178"/>
+      <c r="A4" s="181"/>
       <c r="B4" t="s">
         <v>3</v>
       </c>
@@ -556,16 +656,16 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="F4" t="s">
         <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5">
@@ -580,103 +680,134 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="174"/>
+      <c r="A7" s="184"/>
       <c r="B7" t="s">
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="F7" t="s">
         <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="173"/>
+      <c r="A8" s="174"/>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" s="172" t="s">
+      <c r="A9" s="173"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="172" t="s">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="171"/>
-      <c r="B10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" t="s">
+    <row r="11">
+      <c r="A11" s="185"/>
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="171"/>
+      <c r="B12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
         <v>10</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D12" t="s">
         <v>11</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E12" t="s">
         <v>12</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F12" t="s">
         <v>13</v>
       </c>
-      <c r="G10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="170"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="169" t="s">
+      <c r="G12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="170"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="169" t="s">
         <v>8</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="168"/>
-      <c r="B13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" t="s">
+    <row r="15">
+      <c r="A15" s="186"/>
+      <c r="B15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" t="s">
         <v>13</v>
       </c>
-      <c r="G13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="167"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="166" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" t="s">
-        <v>19</v>
+      <c r="G15" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="165"/>
+      <c r="A16" s="168"/>
       <c r="B16" t="s">
         <v>3</v>
       </c>
@@ -693,213 +824,287 @@
         <v>13</v>
       </c>
       <c r="G16" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="164"/>
+      <c r="A17" s="167"/>
     </row>
     <row r="18">
-      <c r="A18" s="163" t="s">
+      <c r="A18" s="166" t="s">
         <v>8</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="162"/>
+      <c r="A19" s="187"/>
       <c r="B19" t="s">
         <v>3</v>
       </c>
       <c r="C19" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="E19" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="F19" t="s">
         <v>13</v>
       </c>
       <c r="G19" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="161"/>
+      <c r="A20" s="165"/>
+      <c r="B20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="25"/>
-      <c r="B21" s="26"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="32"/>
+      <c r="A21" s="164"/>
     </row>
     <row r="22">
-      <c r="A22" s="33"/>
-      <c r="B22" s="34"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="40"/>
+      <c r="A22" s="163" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="41"/>
-      <c r="B23" s="42"/>
-      <c r="C23" s="43"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="45"/>
-      <c r="F23" s="46"/>
-      <c r="G23" s="47"/>
-      <c r="H23" s="48"/>
+      <c r="A23" s="188"/>
+      <c r="B23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" t="s">
+        <v>28</v>
+      </c>
+      <c r="F23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="49"/>
-      <c r="B24" s="50"/>
-      <c r="C24" s="51"/>
-      <c r="D24" s="52"/>
-      <c r="E24" s="53"/>
-      <c r="F24" s="54"/>
-      <c r="G24" s="55"/>
-      <c r="H24" s="56"/>
+      <c r="A24" s="162"/>
+      <c r="B24" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="57"/>
-      <c r="B25" s="58"/>
-      <c r="C25" s="59"/>
-      <c r="D25" s="60"/>
-      <c r="E25" s="61"/>
-      <c r="F25" s="62"/>
-      <c r="G25" s="63"/>
-      <c r="H25" s="64"/>
+      <c r="A25" s="161"/>
     </row>
     <row r="26">
-      <c r="A26" s="65"/>
-      <c r="B26" s="66"/>
-      <c r="C26" s="67"/>
-      <c r="D26" s="68"/>
-      <c r="E26" s="69"/>
-      <c r="F26" s="70"/>
-      <c r="G26" s="71"/>
-      <c r="H26" s="72"/>
+      <c r="A26" s="25"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="32"/>
     </row>
     <row r="27">
-      <c r="A27" s="73"/>
-      <c r="B27" s="74"/>
-      <c r="C27" s="75"/>
-      <c r="D27" s="76"/>
-      <c r="E27" s="77"/>
-      <c r="F27" s="78"/>
-      <c r="G27" s="79"/>
-      <c r="H27" s="80"/>
+      <c r="A27" s="33"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="40"/>
     </row>
     <row r="28">
-      <c r="A28" s="81"/>
-      <c r="B28" s="82"/>
-      <c r="C28" s="83"/>
-      <c r="D28" s="84"/>
-      <c r="E28" s="85"/>
-      <c r="F28" s="86"/>
-      <c r="G28" s="87"/>
-      <c r="H28" s="88"/>
+      <c r="A28" s="41"/>
+      <c r="B28" s="42"/>
+      <c r="C28" s="43"/>
+      <c r="D28" s="44"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="46"/>
+      <c r="G28" s="47"/>
+      <c r="H28" s="48"/>
     </row>
     <row r="29">
-      <c r="A29" s="89"/>
-      <c r="B29" s="90"/>
-      <c r="C29" s="91"/>
-      <c r="D29" s="92"/>
-      <c r="E29" s="93"/>
-      <c r="F29" s="94"/>
-      <c r="G29" s="95"/>
-      <c r="H29" s="96"/>
+      <c r="A29" s="49"/>
+      <c r="B29" s="50"/>
+      <c r="C29" s="51"/>
+      <c r="D29" s="52"/>
+      <c r="E29" s="53"/>
+      <c r="F29" s="54"/>
+      <c r="G29" s="55"/>
+      <c r="H29" s="56"/>
     </row>
     <row r="30">
-      <c r="A30" s="97"/>
-      <c r="B30" s="98"/>
-      <c r="C30" s="99"/>
-      <c r="D30" s="100"/>
-      <c r="E30" s="101"/>
-      <c r="F30" s="102"/>
-      <c r="G30" s="103"/>
-      <c r="H30" s="104"/>
+      <c r="A30" s="57"/>
+      <c r="B30" s="58"/>
+      <c r="C30" s="59"/>
+      <c r="D30" s="60"/>
+      <c r="E30" s="61"/>
+      <c r="F30" s="62"/>
+      <c r="G30" s="63"/>
+      <c r="H30" s="64"/>
     </row>
     <row r="31">
-      <c r="A31" s="105"/>
-      <c r="B31" s="106"/>
-      <c r="C31" s="107"/>
-      <c r="D31" s="108"/>
-      <c r="E31" s="109"/>
-      <c r="F31" s="110"/>
-      <c r="G31" s="111"/>
-      <c r="H31" s="112"/>
+      <c r="A31" s="65"/>
+      <c r="B31" s="66"/>
+      <c r="C31" s="67"/>
+      <c r="D31" s="68"/>
+      <c r="E31" s="69"/>
+      <c r="F31" s="70"/>
+      <c r="G31" s="71"/>
+      <c r="H31" s="72"/>
     </row>
     <row r="32">
-      <c r="A32" s="113"/>
-      <c r="B32" s="114"/>
-      <c r="C32" s="115"/>
-      <c r="D32" s="116"/>
-      <c r="E32" s="117"/>
-      <c r="F32" s="118"/>
-      <c r="G32" s="119"/>
-      <c r="H32" s="120"/>
+      <c r="A32" s="73"/>
+      <c r="B32" s="74"/>
+      <c r="C32" s="75"/>
+      <c r="D32" s="76"/>
+      <c r="E32" s="77"/>
+      <c r="F32" s="78"/>
+      <c r="G32" s="79"/>
+      <c r="H32" s="80"/>
     </row>
     <row r="33">
-      <c r="A33" s="121"/>
-      <c r="B33" s="122"/>
-      <c r="C33" s="123"/>
-      <c r="D33" s="124"/>
-      <c r="E33" s="125"/>
-      <c r="F33" s="126"/>
-      <c r="G33" s="127"/>
-      <c r="H33" s="128"/>
+      <c r="A33" s="81"/>
+      <c r="B33" s="82"/>
+      <c r="C33" s="83"/>
+      <c r="D33" s="84"/>
+      <c r="E33" s="85"/>
+      <c r="F33" s="86"/>
+      <c r="G33" s="87"/>
+      <c r="H33" s="88"/>
     </row>
     <row r="34">
-      <c r="A34" s="129"/>
-      <c r="B34" s="130"/>
-      <c r="C34" s="131"/>
-      <c r="D34" s="132"/>
-      <c r="E34" s="133"/>
-      <c r="F34" s="134"/>
-      <c r="G34" s="135"/>
-      <c r="H34" s="136"/>
+      <c r="A34" s="89"/>
+      <c r="B34" s="90"/>
+      <c r="C34" s="91"/>
+      <c r="D34" s="92"/>
+      <c r="E34" s="93"/>
+      <c r="F34" s="94"/>
+      <c r="G34" s="95"/>
+      <c r="H34" s="96"/>
     </row>
     <row r="35">
-      <c r="A35" s="137"/>
-      <c r="B35" s="138"/>
-      <c r="C35" s="139"/>
-      <c r="D35" s="140"/>
-      <c r="E35" s="141"/>
-      <c r="F35" s="142"/>
-      <c r="G35" s="143"/>
-      <c r="H35" s="144"/>
+      <c r="A35" s="97"/>
+      <c r="B35" s="98"/>
+      <c r="C35" s="99"/>
+      <c r="D35" s="100"/>
+      <c r="E35" s="101"/>
+      <c r="F35" s="102"/>
+      <c r="G35" s="103"/>
+      <c r="H35" s="104"/>
     </row>
     <row r="36">
-      <c r="A36" s="145"/>
-      <c r="B36" s="146"/>
-      <c r="C36" s="147"/>
-      <c r="D36" s="148"/>
-      <c r="E36" s="149"/>
-      <c r="F36" s="150"/>
-      <c r="G36" s="151"/>
-      <c r="H36" s="152"/>
+      <c r="A36" s="105"/>
+      <c r="B36" s="106"/>
+      <c r="C36" s="107"/>
+      <c r="D36" s="108"/>
+      <c r="E36" s="109"/>
+      <c r="F36" s="110"/>
+      <c r="G36" s="111"/>
+      <c r="H36" s="112"/>
     </row>
     <row r="37">
-      <c r="A37" s="153"/>
-      <c r="B37" s="154"/>
-      <c r="C37" s="155"/>
-      <c r="D37" s="156"/>
-      <c r="E37" s="157"/>
-      <c r="F37" s="158"/>
-      <c r="G37" s="159"/>
-      <c r="H37" s="160"/>
+      <c r="A37" s="113"/>
+      <c r="B37" s="114"/>
+      <c r="C37" s="115"/>
+      <c r="D37" s="116"/>
+      <c r="E37" s="117"/>
+      <c r="F37" s="118"/>
+      <c r="G37" s="119"/>
+      <c r="H37" s="120"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="121"/>
+      <c r="B38" s="122"/>
+      <c r="C38" s="123"/>
+      <c r="D38" s="124"/>
+      <c r="E38" s="125"/>
+      <c r="F38" s="126"/>
+      <c r="G38" s="127"/>
+      <c r="H38" s="128"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="129"/>
+      <c r="B39" s="130"/>
+      <c r="C39" s="131"/>
+      <c r="D39" s="132"/>
+      <c r="E39" s="133"/>
+      <c r="F39" s="134"/>
+      <c r="G39" s="135"/>
+      <c r="H39" s="136"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="137"/>
+      <c r="B40" s="138"/>
+      <c r="C40" s="139"/>
+      <c r="D40" s="140"/>
+      <c r="E40" s="141"/>
+      <c r="F40" s="142"/>
+      <c r="G40" s="143"/>
+      <c r="H40" s="144"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="145"/>
+      <c r="B41" s="146"/>
+      <c r="C41" s="147"/>
+      <c r="D41" s="148"/>
+      <c r="E41" s="149"/>
+      <c r="F41" s="150"/>
+      <c r="G41" s="151"/>
+      <c r="H41" s="152"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="153"/>
+      <c r="B42" s="154"/>
+      <c r="C42" s="155"/>
+      <c r="D42" s="156"/>
+      <c r="E42" s="157"/>
+      <c r="F42" s="158"/>
+      <c r="G42" s="159"/>
+      <c r="H42" s="160"/>
     </row>
   </sheetData>
 </worksheet>
